--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="bug_severities" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">bugs!$A$1:$J$22</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">bugs!$A$1:$J$24</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -352,6 +352,30 @@
   </si>
   <si>
     <t>Right click on the cannon module in the ship.</t>
+  </si>
+  <si>
+    <t>Bunny doesn't go to right place on base</t>
+  </si>
+  <si>
+    <t>Bunny should move to base once the ship has been inside the base for 1 second, even if the ship moves away afterwards</t>
+  </si>
+  <si>
+    <t>Bunny goes to the wrong place and has it's movement affected by the ship if it doesn't not remain in the base past the 1 second</t>
+  </si>
+  <si>
+    <t>Move ship with bunny into base for 1 second, observe where it is going and move ship out of the base</t>
+  </si>
+  <si>
+    <t>Bunny module remains when it gets saved to base</t>
+  </si>
+  <si>
+    <t>Player should have access to bunny modules when there is no bunny on the ship anymore</t>
+  </si>
+  <si>
+    <t>Player can still use bunny module even after no bunnies on the ship</t>
+  </si>
+  <si>
+    <t>Save bunnies to base and then use bunny module</t>
   </si>
   <si>
     <t>Severity</t>
@@ -1449,16 +1473,68 @@
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="A23" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45725.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="A24" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45725.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="G25" s="8"/>
@@ -7305,9 +7381,9 @@
       <c r="J998" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$22">
-    <sortState ref="A1:J22">
-      <sortCondition ref="B1:B22"/>
+  <autoFilter ref="$A$1:$J$24">
+    <sortState ref="A1:J24">
+      <sortCondition ref="B1:B24"/>
     </sortState>
   </autoFilter>
   <printOptions/>
@@ -7332,10 +7408,10 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -7343,7 +7419,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -7351,15 +7427,15 @@
         <v>89</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -7367,7 +7443,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -7375,7 +7451,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -7383,7 +7459,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="202">
   <si>
     <t>#</t>
   </si>
@@ -580,6 +580,27 @@
   </si>
   <si>
     <t>just play and close</t>
+  </si>
+  <si>
+    <t>Brian, Lily</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>you cannot assign bunny on top of a bubble modified simple cannon, but you can assign to a simple cannon and then apply the bubble modifier</t>
+  </si>
+  <si>
+    <t>should be able to assign bunny on top of a bubble modified simple cannon</t>
+  </si>
+  <si>
+    <t>doesn't allow, but allows in the other order</t>
+  </si>
+  <si>
+    <t>assign bunny on top of a bubble modified simple cannon</t>
   </si>
   <si>
     <t>Severity</t>
@@ -2274,16 +2295,36 @@
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="A41" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45739.0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="B42" s="4"/>
@@ -8056,10 +8097,10 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -8067,7 +8108,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -8075,7 +8116,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -8083,7 +8124,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -8091,7 +8132,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -8099,7 +8140,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -8107,7 +8148,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="bug_severities" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">bugs!$A$1:$J$42</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">bugs!$A$1:$J$49</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="235">
   <si>
     <t>#</t>
   </si>
@@ -585,9 +585,6 @@
     <t>Brian, Lily</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>anyone</t>
   </si>
   <si>
@@ -601,6 +598,108 @@
   </si>
   <si>
     <t>assign bunny on top of a bubble modified simple cannon</t>
+  </si>
+  <si>
+    <t>pressing W as a player while in game cause the game to crash (only happened with intel mac)</t>
+  </si>
+  <si>
+    <t>shouldn't crash</t>
+  </si>
+  <si>
+    <t>crashed</t>
+  </si>
+  <si>
+    <t>launch the game and as the player, press W</t>
+  </si>
+  <si>
+    <t>skipping the intro cutscenes does not stop the intro music from playing</t>
+  </si>
+  <si>
+    <t>after the cutscene is skipped, the intro music should stop</t>
+  </si>
+  <si>
+    <t>the intro music continued to play after skipping cutscene</t>
+  </si>
+  <si>
+    <t>skip the intro cutscenes</t>
+  </si>
+  <si>
+    <t>Dayshaun, Clare</t>
+  </si>
+  <si>
+    <t>Some specific chicken enemies aren't moving</t>
+  </si>
+  <si>
+    <t>should come to the player</t>
+  </si>
+  <si>
+    <t>not moving</t>
+  </si>
+  <si>
+    <t>go into level 1 and then the chickens on the top right of the map does not move</t>
+  </si>
+  <si>
+    <t>Some chickens are not avoiding the island</t>
+  </si>
+  <si>
+    <t>they should come to player and avoiding the islands</t>
+  </si>
+  <si>
+    <t>they go on islands</t>
+  </si>
+  <si>
+    <t>just play around and pay attention to the chicken in level 1</t>
+  </si>
+  <si>
+    <t>hitting play starts in level 1 but ship has upgrades</t>
+  </si>
+  <si>
+    <t>the play button should start game in level 1 with only one simple cannon, steering wheel, and 3x3 ship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the play button sharts the game in level 1 but with upgraded ship from previous level </t>
+  </si>
+  <si>
+    <t>launch the game, play through the first level and recieve upgrades. Exit to the main menu, then hit play button again.</t>
+  </si>
+  <si>
+    <t>Dayshaun, Brian</t>
+  </si>
+  <si>
+    <t>The map preview doesn't appear</t>
+  </si>
+  <si>
+    <t>When going to level 3, we expect to see the level 3 map before starting</t>
+  </si>
+  <si>
+    <t>We see only a sea texture</t>
+  </si>
+  <si>
+    <t>Reach level 3 of the game.</t>
+  </si>
+  <si>
+    <t>The tutorial overlay appears when it should not</t>
+  </si>
+  <si>
+    <t>should not appear after saving 1 bunny</t>
+  </si>
+  <si>
+    <t>appears</t>
+  </si>
+  <si>
+    <t>go to tutorail follow instruction and save 1 bunny</t>
+  </si>
+  <si>
+    <t>A tutorial phase has a bug where drop off is not locked</t>
+  </si>
+  <si>
+    <t>1 bunny should only spawn in 1 specific location</t>
+  </si>
+  <si>
+    <t>2 bunnies spawned</t>
+  </si>
+  <si>
+    <t>In tutorial, when you're in the phase for saving the 2nd bunny, drop off the 1st bunny first and then save the 2nd bunny.</t>
   </si>
   <si>
     <t>Severity</t>
@@ -2308,72 +2407,279 @@
         <v>71</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J41" s="6" t="s">
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45753.0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="4"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="H42" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="A43" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45753.0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="A44" s="3">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="4">
+        <v>45753.0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="A45" s="3">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="4">
+        <v>45753.0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="A46" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="4">
+        <v>45753.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="A47" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="4">
+        <v>45753.0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="A48" s="3">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="4">
+        <v>45755.0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="A49" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="4">
+        <v>45755.0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="G50" s="10"/>
@@ -8070,9 +8376,9 @@
       <c r="J998" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$42">
-    <sortState ref="A1:J42">
-      <sortCondition ref="B1:B42"/>
+  <autoFilter ref="$A$1:$J$49">
+    <sortState ref="A1:J49">
+      <sortCondition ref="B1:B49"/>
     </sortState>
   </autoFilter>
   <printOptions/>
@@ -8097,10 +8403,10 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -8108,7 +8414,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -8116,7 +8422,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -8124,7 +8430,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -8132,7 +8438,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -8140,7 +8446,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -8148,7 +8454,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>
